--- a/REGULAR/OJT/NEW DONE/PALADAN, VICENTE.xlsx
+++ b/REGULAR/OJT/NEW DONE/PALADAN, VICENTE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE188F32-471C-46D9-9B3A-8B8CC6E4B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEEABB-F10E-40CE-B884-317398965CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="244">
   <si>
     <t>PERIOD</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/27,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1801,10 +1804,10 @@
   </sheetPr>
   <dimension ref="A2:K648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2160" topLeftCell="A595" activePane="bottomLeft"/>
+      <selection activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1968,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>150.37500000000006</v>
+        <v>151.62500000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1975,7 +1978,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105.375</v>
+        <v>103.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14468,19 +14471,27 @@
       <c r="A599" s="40">
         <v>45078</v>
       </c>
-      <c r="B599" s="20"/>
-      <c r="C599" s="13"/>
+      <c r="B599" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C599" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D599" s="39"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H599" s="39"/>
+      <c r="G599" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H599" s="39">
+        <v>3</v>
+      </c>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="20" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
